--- a/Data/client_input.xlsx
+++ b/Data/client_input.xlsx
@@ -662,49 +662,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>378085</v>
+        <v>121953</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>23630.3125</v>
+        <v>10162.75</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>48310.86111111111</v>
+        <v>25068.11666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>8401.888888888889</v>
+        <v>3048.825</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2032.55</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -716,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>

--- a/Data/client_input.xlsx
+++ b/Data/client_input.xlsx
@@ -662,49 +662,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>121953</v>
+        <v>378085</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>10162.75</v>
+        <v>23630.3125</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>25068.11666666666</v>
+        <v>48310.86111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>3048.825</v>
+        <v>8401.888888888889</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2032.55</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -716,13 +716,13 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>

--- a/Data/client_input.xlsx
+++ b/Data/client_input.xlsx
@@ -662,40 +662,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>378085</v>
+        <v>261694</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>23630.3125</v>
+        <v>13084.7</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>48310.86111111111</v>
+        <v>50884.94444444445</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>8401.888888888889</v>
+        <v>7996.205555555555</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -716,14 +716,14 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
